--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d223044-Reviews-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hampton-Inn-Suites-Los-AngelesHollywood.h694888.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1192 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r591992364-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>223044</t>
+  </si>
+  <si>
+    <t>591992364</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Gem of a hotel!</t>
+  </si>
+  <si>
+    <t>I rarely, if ever, give a five star review of a hotel but I was absolutely pleased with the Hampton Hilton, Los Angeles.  Rooms are modern, ours was very clean, comfortable, and quiet.  Neutrogena products, nice linens, beds were firm but not hard.  Great blackout shade.  Very little outside noise, a little from upstairs room. It is close to Hollywood and Vine, the tourist area but I would advise against walking.  There are a lot of transients in the area camping, but the property is safe and clean.  Parking at the Kodak Theatre and Hollywood and  Highland Shopping Center is vast, go around to the side for the entrance.  Plenty of shopping, restaurants and accessibility to the Hollywood stars and eccentric night life.  Hotel is valet parking only at $30 a night which is irksome but the standard for this area, they do have covered parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I rarely, if ever, give a five star review of a hotel but I was absolutely pleased with the Hampton Hilton, Los Angeles.  Rooms are modern, ours was very clean, comfortable, and quiet.  Neutrogena products, nice linens, beds were firm but not hard.  Great blackout shade.  Very little outside noise, a little from upstairs room. It is close to Hollywood and Vine, the tourist area but I would advise against walking.  There are a lot of transients in the area camping, but the property is safe and clean.  Parking at the Kodak Theatre and Hollywood and  Highland Shopping Center is vast, go around to the side for the entrance.  Plenty of shopping, restaurants and accessibility to the Hollywood stars and eccentric night life.  Hotel is valet parking only at $30 a night which is irksome but the standard for this area, they do have covered parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r591779436-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591779436</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great location and property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a newer property in great condition They clearly have thought through guest experience and everything in the room  from the number of USB ports, to a shelf in front of the mirror for your makeup reflects thoughtfulness </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r591778943-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>591778943</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Stayed at hotel with family of 4 had adjoining roomsRoom size good with free basic breakfast in morningHotel and amenties good with a guest laundry costing $2 a loadPool is ok size and cleanSmall convenience shop in lobby but close walking distance to local convenience storeFood truck to the right of the hotel entrance at the local filling station selling authentic and delicious food The area around hotel has several homeless people living in streets but they dont bother anyoneEasy walking distance to strip and hollywood walk fame</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r589471254-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>589471254</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Comfortable, trendy hotel</t>
+  </si>
+  <si>
+    <t>June 13, 2018 - I stayed at the Hampton Inn on Vine Street in the Hollywood area for one night for business.  The check-in process was a breeze and the front desk attendant recommended an excellent, reasonably-priced Mexican/Salvadoran restaurant within walking distance.  Clean room and bathroom, and plentiful breakfast buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>juannavarrosigala, General Manager at Hampton Inn &amp; Suites Los Angeles/Hollywood, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>June 13, 2018 - I stayed at the Hampton Inn on Vine Street in the Hollywood area for one night for business.  The check-in process was a breeze and the front desk attendant recommended an excellent, reasonably-priced Mexican/Salvadoran restaurant within walking distance.  Clean room and bathroom, and plentiful breakfast buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r588917333-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588917333</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Modern, safe, clean hotel</t>
+  </si>
+  <si>
+    <t>It's a modern hotel which practically looks new.  Maybe it is, or maybe it is just still very up to date or recently renovated.  It doesn't matter to me.  The rooms were large and clean.  The lobby is modern.  Nice to have the free breakfast.  The only thing I didn't like is the cost of parking ($30 per night if I recall correctly).  I'm not going to let that spoil the experience.  This hotel isn't necessarily right next to anything of great interest, yet it is not that far to drive (or get a ride) to Hollywood Blvd or to a lot of restaurants on Santa Monica Blvd.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r588165277-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588165277</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel!</t>
+  </si>
+  <si>
+    <t>I recently stayed here for two nights on a trip with my 3 kids.  The room was clean and well maintained.   Easily accessible to Walk of Fame and staff helpful and friendly.  Lots of traffic though, be prepared!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587757977-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587757977</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Hollywood visit!</t>
+  </si>
+  <si>
+    <t>I recommend paying a little more to stay here. I really had no I complaints.  Some reviewers complained that they didn’t know about the $30/day parking/valet fee until arrival.  Reviewers of other hotels complained about no parking at night due to location near bars. It was worth not having the aggravation. We walked to Hollywood Blvd and back to eat dinner. It was quite a ways but it was a nice night and we never felt unsafe. We would walk it again. We would stay here again to be near the activities we wanted to do:  Paramount Studio tour, Starlight Tour of the Stars Homes, Hollywood Walk of Fame etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recommend paying a little more to stay here. I really had no I complaints.  Some reviewers complained that they didn’t know about the $30/day parking/valet fee until arrival.  Reviewers of other hotels complained about no parking at night due to location near bars. It was worth not having the aggravation. We walked to Hollywood Blvd and back to eat dinner. It was quite a ways but it was a nice night and we never felt unsafe. We would walk it again. We would stay here again to be near the activities we wanted to do:  Paramount Studio tour, Starlight Tour of the Stars Homes, Hollywood Walk of Fame etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587068556-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587068556</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>This is not the Hampton Inn I know</t>
+  </si>
+  <si>
+    <t>We are loyal Hampton Inn and Homewood Suites guests everywhere we go because we are familiar with the quality of service and accommodations we will get with them but this branch of Hampton Inn broke our hearts and ruined our 4 day vacation.  The first room the front desk gave us has a stranger's hair in my son's pillow and someone else's trash in the restroom. In other words, they gave us an dirty room. After asking and insisting to be transferred to a clean one, we had to face the struggle of having a family member hold the shower handle for us to achieve the right temperature because the shower handle slips. It is either we have very cold or very hot water. We told the front desk but the same reply of no room is available is what we get. We were at room 517. Please have someone fix the shower handle for other families so they won't have to suffer the same demise. It is so hard to coordinate schedules, save and plan for a vacation just to be ruined by a hotel stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are loyal Hampton Inn and Homewood Suites guests everywhere we go because we are familiar with the quality of service and accommodations we will get with them but this branch of Hampton Inn broke our hearts and ruined our 4 day vacation.  The first room the front desk gave us has a stranger's hair in my son's pillow and someone else's trash in the restroom. In other words, they gave us an dirty room. After asking and insisting to be transferred to a clean one, we had to face the struggle of having a family member hold the shower handle for us to achieve the right temperature because the shower handle slips. It is either we have very cold or very hot water. We told the front desk but the same reply of no room is available is what we get. We were at room 517. Please have someone fix the shower handle for other families so they won't have to suffer the same demise. It is so hard to coordinate schedules, save and plan for a vacation just to be ruined by a hotel stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587052366-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>587052366</t>
+  </si>
+  <si>
+    <t>Hollywood is a dump, but this hotel is a charm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel to LA several times a year to visit friends. Although the politics, attitude and general atmosphere of LA is abismal, my trip is always made better when I stay here. From the valets to the front desk to the pleasant staff who take care of the rooms, it’s always professional and top notch. If LA traffic was not a total cluster bomb, Idconsoder moving there and setting up residence in this hotel.  5 stars. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r583758041-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583758041</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and convenient</t>
+  </si>
+  <si>
+    <t>We chose this hotel because we were helping our son move to L.A. and it was convenient to his new apartment. Walk out of the hotel and turn left and you're about 3/4 mile from Hollywood Blvd. (Hollywood and Vine!) and all the fun there. Turn right and you're about a 1 1/4 mile from Larchmont/Larchmont Village, with great restaurants and shops. Both directions an easy walk. This is, of course, a very urban area. There were homeless people sleeping near the hotel and all along Vine, but we never felt unsafe. The breakfast was great and the beds were very comfortable. Recommend!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r583494156-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>583494156</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>You should stay here!</t>
+  </si>
+  <si>
+    <t>A wonderful property and staff..we thoroughly enjoyed our stay!  The location was outstanding...walking distance to downtown Hollywood and all its venues.  We would not hesitate to stay here anytime we travel to Los Angeles!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r582541009-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>582541009</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel, bad neighborhood</t>
+  </si>
+  <si>
+    <t>The hotel was very nice but there were homeless everywhere around the hotel. I walked to lunch but would never do that again. I had to Uber to dinner as I just didn't feel safe walking with all the strange people milling around.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581854202-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581854202</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Not all it is cracked up to be</t>
+  </si>
+  <si>
+    <t>To much road noise, homeless people fighting in the middle of the night cars drag racing, complimentary breakfast tasted like left overs from the day before. There was no milk. So my final impressions would be if there is nothing else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581719036-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581719036</t>
+  </si>
+  <si>
+    <t>Excellent Location and Staff. Brand New Hotel.</t>
+  </si>
+  <si>
+    <t>Don't think twice about this place. The hotel is simple, clean and new. Room is good enough and you get what you for.Breakfast is no good. Parking is expensive.Location is fine in the heart of Hollywood.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581424804-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>581424804</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Not a good Hampton</t>
+  </si>
+  <si>
+    <t>This one is not good!   
+The good - it looks like it's brand new so the rooms are nice and modern and clean. 
+The bad:
+1) LIke other people have commented here, there is no hot water!  My showers were luke warm at best.  There's no excuse for that and that's my main reason for giving a 1 star.   It shouldn't be accepted by the hotel and they should have fixed it.
+2) Paper thin walls - i checked in reasonably late and wanted to go to bed.  Two girls checked in to the room next door. There was an adjoining door (locked of course).  i could hear absolutely everything they were saying and doing.  I heard them blow their noses!  i heard the toilet flush!  and everything they said.  So i complained and i got moved to a corner room.  The new room was on Vine St so there was traffic noise, but that doesn't bother me.  I was grateful to be away from being able to hear strangers use the toilet!
+3) Slow elevators - unacceptable slow!  There are only 5 levels and i had to wait so long every time.
+Tips:
+1) The area - people have commented on the area.  But i knew the area so it was no surprised.  it is NOT unsafe.  There is a bit of a homeless problem in the area, but it s perfectly safe and always busy.
+2) Parking -...This one is not good!   The good - it looks like it's brand new so the rooms are nice and modern and clean. The bad:1) LIke other people have commented here, there is no hot water!  My showers were luke warm at best.  There's no excuse for that and that's my main reason for giving a 1 star.   It shouldn't be accepted by the hotel and they should have fixed it.2) Paper thin walls - i checked in reasonably late and wanted to go to bed.  Two girls checked in to the room next door. There was an adjoining door (locked of course).  i could hear absolutely everything they were saying and doing.  I heard them blow their noses!  i heard the toilet flush!  and everything they said.  So i complained and i got moved to a corner room.  The new room was on Vine St so there was traffic noise, but that doesn't bother me.  I was grateful to be away from being able to hear strangers use the toilet!3) Slow elevators - unacceptable slow!  There are only 5 levels and i had to wait so long every time.Tips:1) The area - people have commented on the area.  But i knew the area so it was no surprised.  it is NOT unsafe.  There is a bit of a homeless problem in the area, but it s perfectly safe and always busy.2) Parking - if you are staying here on a weekend, don't pay for the valet at the hotel.  Parks on the street are easy to find and it's free from 7pm to 8am.MoreShow less</t>
+  </si>
+  <si>
+    <t>This one is not good!   
+The good - it looks like it's brand new so the rooms are nice and modern and clean. 
+The bad:
+1) LIke other people have commented here, there is no hot water!  My showers were luke warm at best.  There's no excuse for that and that's my main reason for giving a 1 star.   It shouldn't be accepted by the hotel and they should have fixed it.
+2) Paper thin walls - i checked in reasonably late and wanted to go to bed.  Two girls checked in to the room next door. There was an adjoining door (locked of course).  i could hear absolutely everything they were saying and doing.  I heard them blow their noses!  i heard the toilet flush!  and everything they said.  So i complained and i got moved to a corner room.  The new room was on Vine St so there was traffic noise, but that doesn't bother me.  I was grateful to be away from being able to hear strangers use the toilet!
+3) Slow elevators - unacceptable slow!  There are only 5 levels and i had to wait so long every time.
+Tips:
+1) The area - people have commented on the area.  But i knew the area so it was no surprised.  it is NOT unsafe.  There is a bit of a homeless problem in the area, but it s perfectly safe and always busy.
+2) Parking -...This one is not good!   The good - it looks like it's brand new so the rooms are nice and modern and clean. The bad:1) LIke other people have commented here, there is no hot water!  My showers were luke warm at best.  There's no excuse for that and that's my main reason for giving a 1 star.   It shouldn't be accepted by the hotel and they should have fixed it.2) Paper thin walls - i checked in reasonably late and wanted to go to bed.  Two girls checked in to the room next door. There was an adjoining door (locked of course).  i could hear absolutely everything they were saying and doing.  I heard them blow their noses!  i heard the toilet flush!  and everything they said.  So i complained and i got moved to a corner room.  The new room was on Vine St so there was traffic noise, but that doesn't bother me.  I was grateful to be away from being able to hear strangers use the toilet!3) Slow elevators - unacceptable slow!  There are only 5 levels and i had to wait so long every time.Tips:1) The area - people have commented on the area.  But i knew the area so it was no surprised.  it is NOT unsafe.  There is a bit of a homeless problem in the area, but it s perfectly safe and always busy.2) Parking - if you are staying here on a weekend, don't pay for the valet at the hotel.  Parks on the street are easy to find and it's free from 7pm to 8am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r579102341-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>579102341</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Received a text asking for my ETA and if there was anything they could do for me prior to arrival which was nice. Check in was easy and the front desk kindly answered my questions about suggestions for getting around the area. It's not in an area you'd feel safe walking around in at night but it's in a great position to access many local attractions. Hotel was clean, room was great (they upgraded me upon arrival). At night there is a little street noise from the club next door if you're on that side of the hotel. The cost for parking each night is enough to make me consider looking for somewhere else next time I need to be in the area. If the cost for parking was half what it was, I'd have no hesitation booking at this hotel again in the future. Anything over $30 is a little extreme.MoreShow less</t>
+  </si>
+  <si>
+    <t>Received a text asking for my ETA and if there was anything they could do for me prior to arrival which was nice. Check in was easy and the front desk kindly answered my questions about suggestions for getting around the area. It's not in an area you'd feel safe walking around in at night but it's in a great position to access many local attractions. Hotel was clean, room was great (they upgraded me upon arrival). At night there is a little street noise from the club next door if you're on that side of the hotel. The cost for parking each night is enough to make me consider looking for somewhere else next time I need to be in the area. If the cost for parking was half what it was, I'd have no hesitation booking at this hotel again in the future. Anything over $30 is a little extreme.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r577926403-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577926403</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>The heart of the action</t>
+  </si>
+  <si>
+    <t>Hotel was central located and everything was brand new.  Rooms and bathrooms were huge and clean.  Complimentary breakfast was very good with great offerings.  George at the front desk was the most personable person, very helpful and friendly!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r577526980-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577526980</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>A wonderful place to stay</t>
+  </si>
+  <si>
+    <t>The Hampton Inn is located in the perfect place for tourists visiting Hollywood. The hotel was relatively new and was very clean. Staff was friendly and was prepared to meet the needs of all guests. I wouldn’t hesitate to make my next stay when I’m out of town at the Hampton Inn.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r576132567-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>576132567</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>I was a guess at this facility because my son was a patient of Cedars Sinai medical Center. The hotel was in a 4 mile radius of the hospital which was very convenient. I did not us valet parking due to the cost but chose to us the parking structure of Cedars which gave me a discount. I was transported to and from by uber.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r575804217-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>575804217</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Overcharge for Valet Parking and would not refund</t>
+  </si>
+  <si>
+    <t>I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if...I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if I had any problems. I kept checking my Debit Visa regularly and no refund appeared. I e-mailed the Hampton Inn &amp; Suites on 8th December 2017 and again on the 23rd December 2017 and received no reply. Upon putting the transaction in dispute, the reply Citibank received from the merchant was that it was a ‘valid transaction’ and would not reimburse the monies collected for the nights no valet parking services were rendered. Citibank have come to the party and reimbursed me the USD $60.00 overcharge (3 cheers to them!) In light of this I invite hotel management to come forward with their argument that they were within their right to charge, CCTV and the Valet Parking log books will show I only utilised the valet parking service for one night and not three nights. Very poor customer service from a Hampton Inn, check your accounts carefully people!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if...I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if I had any problems. I kept checking my Debit Visa regularly and no refund appeared. I e-mailed the Hampton Inn &amp; Suites on 8th December 2017 and again on the 23rd December 2017 and received no reply. Upon putting the transaction in dispute, the reply Citibank received from the merchant was that it was a ‘valid transaction’ and would not reimburse the monies collected for the nights no valet parking services were rendered. Citibank have come to the party and reimbursed me the USD $60.00 overcharge (3 cheers to them!) In light of this I invite hotel management to come forward with their argument that they were within their right to charge, CCTV and the Valet Parking log books will show I only utilised the valet parking service for one night and not three nights. Very poor customer service from a Hampton Inn, check your accounts carefully people!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r575288239-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>575288239</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Good hotel, not very nice surrounding area</t>
+  </si>
+  <si>
+    <t>The hotel was clean, relatively quiet for being in a city, and comfortable, though nothing out of the ordinary for a nice Hampton Inn. The reason for an "average" rather than "very good" rating is that the surrounding area is a bit sketchy:  perhaps not unsafe, but lots of homeless people on the sidewalks, smell of urine near the hotel on the streets and sidewalks, and boarded up shops within a few blocks away. The area to the north of the hotel (towards Hollywood Blvd) is a bit nicer, though still not great. If, however, you want to be near most of the Hollywood attractions, this hotel is certainly a reasonable choice and likely as good or better than many in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean, relatively quiet for being in a city, and comfortable, though nothing out of the ordinary for a nice Hampton Inn. The reason for an "average" rather than "very good" rating is that the surrounding area is a bit sketchy:  perhaps not unsafe, but lots of homeless people on the sidewalks, smell of urine near the hotel on the streets and sidewalks, and boarded up shops within a few blocks away. The area to the north of the hotel (towards Hollywood Blvd) is a bit nicer, though still not great. If, however, you want to be near most of the Hollywood attractions, this hotel is certainly a reasonable choice and likely as good or better than many in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r571248564-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>571248564</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great find.  I was so nervous about selecting a hotel while in LA. The prices vary so wildly and I just didn’t know what areas are safe. I chose this Hampton and was so pleasantly surprised because it was a nice new facility with parking under the building. All of the staff were extremely helpful and friendly. The room was clean and a welcome place to land after a day battling the LA traffic! It was quiet and exactly what we needed in a great location. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r570053358-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>570053358</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great experience!!</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at this hotel and would definitely stay again. Staff was courteous and friendly. The hotel was centrally located for all the places we planned to visit...Universal Studios, Madam Tussauds, etc.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569588411-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569588411</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean room and good breakfast. The safe wasn’t working so we moved to another room and still the safe wasn’t working. We found another alternative. The valet parking is great but there is a parking fee each night. The front desk is helpful and nice. It was a good stay for one night. Near everything. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569184492-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569184492</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>LA Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My overall stay at the Hampton Inn was excellent. The staff was great, the breakfast yummy and in a good location for my trip. My two complaints were the sound between floors; I had an extremely loud customer above me that kept me up or woke me up each night. Also, I wish there were drawers in the room closer to the closet or underneath the bed stand. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569177535-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>569177535</t>
+  </si>
+  <si>
+    <t>Good location for Universal Studios but you are forced to valet...</t>
+  </si>
+  <si>
+    <t>This hotel was comfortable and a couple of miles from Universal Studios.  Apparently there is a way to take public transportation if you are willing to walk a few blocks, but we ended up driving to the park.  We did not experience breakfast.  My qualm is with the mandatory valet parking for $30 a night.  I tried to park myself in their garage, which was almost completely empty, and they literally chased me down there to tell me they had to park it.  So that plus the tip each time you want your car add on significantly to the cost of the hotel, which is already not cheap (versus a flat parking fee where I can come and go).  The area is just okay- we walked at night to a nearby restaurant and there are homeless people sleeping along the street (typical in much of California now).  But there are quite a few restaurants within walking distance.  Based on the extra I had to pay due to the parking situation, I would not stay here again.  Otherwise the hotel is comfortable and clean and the service was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was comfortable and a couple of miles from Universal Studios.  Apparently there is a way to take public transportation if you are willing to walk a few blocks, but we ended up driving to the park.  We did not experience breakfast.  My qualm is with the mandatory valet parking for $30 a night.  I tried to park myself in their garage, which was almost completely empty, and they literally chased me down there to tell me they had to park it.  So that plus the tip each time you want your car add on significantly to the cost of the hotel, which is already not cheap (versus a flat parking fee where I can come and go).  The area is just okay- we walked at night to a nearby restaurant and there are homeless people sleeping along the street (typical in much of California now).  But there are quite a few restaurants within walking distance.  Based on the extra I had to pay due to the parking situation, I would not stay here again.  Otherwise the hotel is comfortable and clean and the service was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r568339451-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>568339451</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Finally!</t>
+  </si>
+  <si>
+    <t>Finally, a decent Hilton a family hotel in that area. Company business is right off Vine and it’s convenient. Recommended the hotel to other business colleagues who usually stay at other hotels because of location. But they value and quality of Hampton Inn is significantly better</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r566351179-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566351179</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Perfect for Overnight stop in Hollywood!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is located a few blocks from Hollywood Blvd. - about a 20 minute walk to the heart of all of the attractions.  There is valet parking for $30/night in a parking garage.  There really isn’t any street parking in the area (that isn’t sketchy).  The hotel appears to be either new or recently remodeled.  No complaints compared to other Hampton Inns that I’ve stayed at. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r562174666-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>562174666</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>We had a great experience from the minute we walked in the door until we checked out.  The hotel is fairly new and very clean.  Our room was large, the bathroom more than adequate in size and the bed comfortable.  TV offerings were great and the free internet speed good.  The breakfast food offerings were simple but good and they kept all of them well stocked.  There is an area to purchase snacks, soft drinks and various other items in the hotel.  We were out and about for most of our stay so we weren't able to check out the pool and other amenities or the surrounding area.  The staff was VERY friendly and helpful. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard E, General Manager at Hampton Inn &amp; Suites Los Angeles/Hollywood, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We had a great experience from the minute we walked in the door until we checked out.  The hotel is fairly new and very clean.  Our room was large, the bathroom more than adequate in size and the bed comfortable.  TV offerings were great and the free internet speed good.  The breakfast food offerings were simple but good and they kept all of them well stocked.  There is an area to purchase snacks, soft drinks and various other items in the hotel.  We were out and about for most of our stay so we weren't able to check out the pool and other amenities or the surrounding area.  The staff was VERY friendly and helpful. We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r561321754-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561321754</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Location leaves alot to be desired</t>
+  </si>
+  <si>
+    <t>Stayed her two nights in Jan. Room was clean however there was mold in the shower, sad for a hotel so new.Breakfast was excellent; that's all there is! No bar, no entertainment.There is nothing to do in the immediate area and I would not feel safe going out after dark.The price does not reflect what this hotel has to offer.There is a store next door that carries anything you may need. There is no store in the hotel.I would not stay here again.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558913766-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>558913766</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Awesome, just a bit pricey</t>
+  </si>
+  <si>
+    <t>Everything about our stay was amazing. Modern, beautifully updated, excellent service, great breakfast, clean, comfy, overall superb. Just wish the price was a bit more affordable, but given the location, maybe that's unavoidable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558884347-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>558884347</t>
+  </si>
+  <si>
+    <t>Great hotel, new and clean</t>
+  </si>
+  <si>
+    <t>Well appointed rooms, efficiently designed. Everything is new and the decor is very modern design. Terrific location, in the middle of Hollywood. Easy in-and-out valet parking, much less expensive than most Hollywood and other area hotels. Loved having the mini-fridge and microwave in the room. We will definitely be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558167324-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>558167324</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Saved us from a skeevy AirBandB!</t>
+  </si>
+  <si>
+    <t>Escaped our AirBandB at 6am after one night and this lovely and friendly hotel took us immediately. Everyone seems happy to work there. Room was comfy and clean, quiet and a nice view of HOLLYWOOD sign. Standard American breakfast items each morning. Coffee and tea 24/7.  We loved our stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Escaped our AirBandB at 6am after one night and this lovely and friendly hotel took us immediately. Everyone seems happy to work there. Room was comfy and clean, quiet and a nice view of HOLLYWOOD sign. Standard American breakfast items each morning. Coffee and tea 24/7.  We loved our stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r555948643-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555948643</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Great location and price! Nice rooms!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel and location. Traveled to Los Angeles and wanted to look for a hotel central to Hollywood, The Getty, and other attractions we wanted to check out as well as close proximity to family and friends and this location was a winner. Minutes from the airport, and all the major attractions and right down the road from Hollywood, and around the corner from everything. Rooms were very nice, and newly updated, breakfast was very good as well. Staff was very friendly from the front desk, to the valet. Also right behind the hotel is Wild Card Boxing gym, was a pleasant surprise. Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r555264922-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>555264922</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Good property, but phone scammers soured my stay</t>
+  </si>
+  <si>
+    <t>This is a nice property which seems new and is located near a busy intersection with some good food/gas/bar options. The big issue was someone kept calling my room posing as the front desk and trying to get me to give them my billing (credit card) info. When I told them I knew they were scammers they threatened me with physical harm and said they were coming to my room. Kind of freaky. The front desk didn't warn me about these people calling, another guest did when I was checking in. The front desk had a memo about it, but they never told me verbally. Kinda crappy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r554453586-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554453586</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Good stuff</t>
+  </si>
+  <si>
+    <t>The bed was a squeaky which is odd for a hotel bed and the water in the shower never got hot. Just warm. But otherwise everything was great. Very helpful staff and comfortable atmosphere. We would stay here again. If we stay longer than the three nights we did this time we would have asked for a bed that didn’t squeak. MoreShow less</t>
+  </si>
+  <si>
+    <t>The bed was a squeaky which is odd for a hotel bed and the water in the shower never got hot. Just warm. But otherwise everything was great. Very helpful staff and comfortable atmosphere. We would stay here again. If we stay longer than the three nights we did this time we would have asked for a bed that didn’t squeak. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r553371042-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553371042</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>New hotel, close to Universal Studios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice, new hotel close to Universal Studios and LA shopping. Great selection for the hot breakfast, something to please everybody. We chose the park and stay option because the rate was better than paying for the room AND parking. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r553014021-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>553014021</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Good Experience at Hampton Inn LA/Hollywood</t>
+  </si>
+  <si>
+    <t>I thourghly enjoyed my experience at the Hampton Inn and Suties LA/Hollywood.  It was very clean and well managed especially from my experience in the Hollywood area hotels...this hotel is economical, well managed, clean, and the service was friendly and competent ...I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>I thourghly enjoyed my experience at the Hampton Inn and Suties LA/Hollywood.  It was very clean and well managed especially from my experience in the Hollywood area hotels...this hotel is economical, well managed, clean, and the service was friendly and competent ...I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r550753510-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550753510</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, close to everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you have a car and will be driving everywhere, this hotel is in an excellent location - close to Hollywood Walk of Fame area, Universal Studios, Warner Bros., Beverly Hill, downtown etc. Valet parking is efficient but I prefer to park myself. The breakfast was good and varied. Each day they had different items in addition to the regulars - waffles, roasts, pastries, fruit and yogurt. Room was clean. Shower was lacking big time in pressure. I didn’t think the neighborhood was great for a nighttime stroll so I just drove everywhere. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r548920268-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>548920268</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>New kid on the block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel, just 3 mos old, I was told.  Room &amp; public areas are well appointed without being over the top. Our room had microwave &amp; fridge. Stayed here overnight to see a Cirque du Soleil show.  Minus 1 star for  the price of valet parking($30) &amp; the neighborhood </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r547714981-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547714981</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>New property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you check in online.  You will also need to stop at the front desk to do the same exact check in.   Apparently online check in at this property means nothing.   Otherwise rooms were clean.  Breakfast is served daily </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r547782866-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>547782866</t>
+  </si>
+  <si>
+    <t>Loud Music</t>
+  </si>
+  <si>
+    <t>Digital Key did not work at check in.  When I addressed with the front desk I was told that it must be something with my phone. As I stay at Hilton properties that almost always have this feature I was offended that the blame was placed on me.  I am confident on how the key less entry works. As I was not identified as a Diamond member I realize that it is possible at this newer hotel that training on this service has not reached a high level of competence.    The valet was a hidden charge which I did not appreciate.   The bathroom had hair and the underneath of the toilet seat was was not clean.   The most troublesome part of trying to sleep on a Saturday night was the loud bass music that kept blasting.MoreShow less</t>
+  </si>
+  <si>
+    <t>Digital Key did not work at check in.  When I addressed with the front desk I was told that it must be something with my phone. As I stay at Hilton properties that almost always have this feature I was offended that the blame was placed on me.  I am confident on how the key less entry works. As I was not identified as a Diamond member I realize that it is possible at this newer hotel that training on this service has not reached a high level of competence.    The valet was a hidden charge which I did not appreciate.   The bathroom had hair and the underneath of the toilet seat was was not clean.   The most troublesome part of trying to sleep on a Saturday night was the loud bass music that kept blasting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545888675-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>545888675</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Great Place to stay in Hollywood.</t>
+  </si>
+  <si>
+    <t>Very comfortable and well designed hotel.  Close to everything we wanted to do.  The breakfast had good hot items that changed every day as well as a make your own waffle that my husband loved.  There is a pool but it is not heated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545685716-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>545685716</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay in Hollywood, staff treat you like a star!</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is new, well designed, clean and in a great location. The staff are especially courteous. (You do have to pay for parking but considering the location that is reasonable. Valet was always very prompt and friendly.)MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is new, well designed, clean and in a great location. The staff are especially courteous. (You do have to pay for parking but considering the location that is reasonable. Valet was always very prompt and friendly.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545376249-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>545376249</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Great location and excellent remodel</t>
+  </si>
+  <si>
+    <t>This is a welcome addition to the hotel choices in the Hollywood and Vine area.  Much better pricing than the nearby Roosevelt or W, yet still an easy walk or cheap Uber ride.  The newly remodeled hotel is really well designed.  All the USB ports and electrical plugs in the right places and the bathroom has plenty of counter space and other storage options.  As one other person indicated the immediate neighborhood is a little sketchy, but it was safe enough to walk to the Kodak theater while it was still daylight.  (We did Uber home.)  The front desk staff and valet staff were also very helpful.  I'll definitely stay here again if we attend an event at the Pantages or Kodak Theater.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This is a welcome addition to the hotel choices in the Hollywood and Vine area.  Much better pricing than the nearby Roosevelt or W, yet still an easy walk or cheap Uber ride.  The newly remodeled hotel is really well designed.  All the USB ports and electrical plugs in the right places and the bathroom has plenty of counter space and other storage options.  As one other person indicated the immediate neighborhood is a little sketchy, but it was safe enough to walk to the Kodak theater while it was still daylight.  (We did Uber home.)  The front desk staff and valet staff were also very helpful.  I'll definitely stay here again if we attend an event at the Pantages or Kodak Theater.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r543277472-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>543277472</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t>Very nice, new property</t>
+  </si>
+  <si>
+    <t>Great location close to hollywood and Wiltern Theater.  Complimentary beverages and breakfast, and internet for HH members.  WARNING_ no self parking, only $30 Valet option.  However, you can park on the street for free 2-3 blocks away.  Worth it to save $30/day!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r542361477-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542361477</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent, modern commodations.</t>
+  </si>
+  <si>
+    <t>The neighborhood, like many in the Hollywood area, has positives and negatives.  We walked at night, but we were not comfortable.  The valet parking was excellent, so we just used the car when we went out and it was very convenient.  However, the newness and the safety of the hotel -- and the excellent breakfast was well worth the slight inconvenience of the neighborhood.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r542361233-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542361233</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Convenient Location in Hollywood</t>
+  </si>
+  <si>
+    <t>Hampton Inn and Suites is conveniently located on Vine, close to Santa Monica Blvd.  The hotel seemed relatively new. and it was nice and clean.  The complimentary breakfast was very good.  My only issue was that I requested a quiet room and my room faced Vine-not exactly what I would call quiet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r541249002-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>541249002</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Best hotel experience ever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is brand new and everyone is highly trained in customer service, they are very nice and accommodating. I highly recommended this hotel to anyone staying in the Hollywood area. Hollywood Blvd is a short walk slightly uphill but not bad at all. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r540839268-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540839268</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Hampton Inn on Vine - Hollywood</t>
+  </si>
+  <si>
+    <t>The hotel is new which is a plus.  The walls are so thin that you can hear the actual conversation of anyone staying next to you.  If you want to sleep, this may not be your best choice of hotels. The room itself was very nice, lots of plugs, and the lighting was good (but the noise makes it average in my opinion) We felt safe in the area and liked its location close to the Pantages Theater. Literature said it was at Hollywood Blvd. and Vine which isn't true.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r539497308-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>539497308</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and were positively surprised although we have been in the past in other Hampton hotels and we were used to this level of service. The hotel  is new and it can be seen when entering the rooms. They are clean and fairly large. Breakfast is complimentary and there is a good choice. The valet parking is very efficient and the price is more than reasonable. The hotel location is not bad, close to the walk of fame</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r536322999-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>536322999</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>They gave out my room key</t>
+  </si>
+  <si>
+    <t>Staff seemed to not care that a stranger was issued a key to my room at 11 PM. They called to see if the room was occupied instead of verifying the ID of the person  to whom they gave my key ruining my sleep.   Then my keys were deactivated.    They then offered me Honors points, but those are yet to arrive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r535800539-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535800539</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel. I’ve stayed at Hampton Inns in the past, and I would say this one was was really nice and did not disappoint. The location was very close to a lot of sites (we had a rental car) but I would not walk around in the area at night. I would stay here again but next time I will request a room not facing Vine St as it was a little noisy late into the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r535763036-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535763036</t>
+  </si>
+  <si>
+    <t>Another great option for the Hollywood/WeHo/Beverly Hills area</t>
+  </si>
+  <si>
+    <t>I’m a Hilton Honors member and have always struggled in this area because of the fewer options in order to stay loyal to the brand. Was very pleased to see that this hotel opened and added to the options. Super clean!  Great staff helped us in every way possible (and I’m pretty picky sometimes)!  Super convenient area!  I will definitely return to this property on my next visit to LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r533411144-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>533411144</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>My business trip to Hollywood</t>
+  </si>
+  <si>
+    <t>My stay at the Hampton Inn was convenient, secure and efficient. The property is located in declining portion of Hollywood and it stands out accordingly. The property will help the area gentrify because of it's aesthetics and the property is well run</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r532959491-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532959491</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Chain hotel nails it</t>
+  </si>
+  <si>
+    <t>I needed a hotel for one night in the Hollywood area close to the Hollywood Bowl. My mother in her 70s was going to be with me so I had to rule out boutique hotels without legit parking, too much noise from Hollywood Blvd (seriously one hotel said they provided complimentary ear plugs) and ones without elevators. So, I came across the Hampton as it had really good reviews and everything hit the elderly mother checklist. But then the day before we were to arrive, my mother couldn't travel with me so a friend went with me instead. I thought, well shoot, now I wished I booked something more unique than a chain hotel. But you know what, this place was awesome! It was brand new, loved the decor, the staff was friendly and helpful, the parking (valet $30 overnight) super easy and the free breakfast was just what we needed after a night at the Hollywood Bowl. Even though it was a bit further from the Bowl, I appreciated that it was calmer and more relaxed than right off the main drag. MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed a hotel for one night in the Hollywood area close to the Hollywood Bowl. My mother in her 70s was going to be with me so I had to rule out boutique hotels without legit parking, too much noise from Hollywood Blvd (seriously one hotel said they provided complimentary ear plugs) and ones without elevators. So, I came across the Hampton as it had really good reviews and everything hit the elderly mother checklist. But then the day before we were to arrive, my mother couldn't travel with me so a friend went with me instead. I thought, well shoot, now I wished I booked something more unique than a chain hotel. But you know what, this place was awesome! It was brand new, loved the decor, the staff was friendly and helpful, the parking (valet $30 overnight) super easy and the free breakfast was just what we needed after a night at the Hollywood Bowl. Even though it was a bit further from the Bowl, I appreciated that it was calmer and more relaxed than right off the main drag. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r532771712-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>532771712</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>Hampton LA</t>
+  </si>
+  <si>
+    <t>Hotel was in an extremely loud location.  Walls were paper thin.  Pool is small.  Complimentary breakfast was good and unexpected in downtown LA.  Valet service was extremely friendly.  However, I would not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r531818408-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531818408</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Super friendly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel with a service animal and had a booking with full disclosure at a Hilton property. Upon showing up they decided it wasn’t pet friendly (even though they confirmed on the phone it was). They were able to get me a booking at Hampton, which was WAY better. Excellent customer Service and new property, so super clean!  Melissa is amazing!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r531266987-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>531266987</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Last minute business trip to Hollywood!</t>
+  </si>
+  <si>
+    <t>A colleague and I had to make a last minute trip to Hollywood for a weekend expo.  The Hampton Inn was in the most central location, easy access to public transport, and affordable even when booked 24 hours early.  The staff was uniformly cheerful, professional and helpful.  The room was compact but neat and comfortable -- the microwave very handy for late night dinner!  Quite spacious bathroom and shower.  The free breakfast was plentiful and hearty.  Our time at the expo was a success and our stay at the Hampton even more so -- a very happy weekend in Hollywood!  I would book there again in a second.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r530403769-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>530403769</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Fresh and clean hotel, awesome value for money</t>
+  </si>
+  <si>
+    <t>The hotel must be brand new; everything felt like it had never been touched before. The room was well appointed, particularly the bathroom was great. The fitness center was good too, so zero complaints there. The location was great too, just a few minutes walk to Sunset and the Hollywood walk of fame. All in all I was highly impressed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528633147-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528633147</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Cleanest Hotel of our trip!</t>
+  </si>
+  <si>
+    <t>This is a new hotel and very, very clean.  I don't always feel comfortable in the bathroom and shower, but this one was spotless.  The beds were comfortable and clean.  The very large TV was a pleasant surprise as were the clean carpets.  The area was close to many sights but it was a little seedy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528332573-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528332573</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, and safe!</t>
+  </si>
+  <si>
+    <t>This Hampton is brand new and is off to a stellar start! Everything is immaculate. Incredible pool. Amazing staff, super friendly. Rooms have a fun, Hollywood feel and boutique design. Very friendly general manager.  Stay here!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528103116-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>528103116</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>I am a Hilton Rewards Member because I expect a certain standard, level of service and accommodation. Of course the Hampton met the standard. It is couched in an area that contains a number of restaurants, clubs and cinemas - what starts as a business trip can easily be converted to a fun getaway...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r527733276-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>527733276</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Quality in the City</t>
+  </si>
+  <si>
+    <t>If you are having a hard time deciding on a hotel room in Hollywood from the expensive large format hotel that you see during award shows have no fear and go several blocks south of Hollywood Blvd and stay at the Hampton Inn &amp; Suites.  It has the quality you would expect from the brand, it's not a 1000 room mega hotel but yet it is still in the heart of all the Hollywood action that you come to Hollywood to experience.  If you have stayed at a Hampton Inn before you know what to expect.  This hotel does not disappoint on that front.  It is your typical 5 story hotel with breakfast.  It only has valet parking so just pay the fee it is better than hunting for parking in Hollywood.  When I checked in I was offered an upgraded (larger) room on the 4th floor it was very nice and meet my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you are having a hard time deciding on a hotel room in Hollywood from the expensive large format hotel that you see during award shows have no fear and go several blocks south of Hollywood Blvd and stay at the Hampton Inn &amp; Suites.  It has the quality you would expect from the brand, it's not a 1000 room mega hotel but yet it is still in the heart of all the Hollywood action that you come to Hollywood to experience.  If you have stayed at a Hampton Inn before you know what to expect.  This hotel does not disappoint on that front.  It is your typical 5 story hotel with breakfast.  It only has valet parking so just pay the fee it is better than hunting for parking in Hollywood.  When I checked in I was offered an upgraded (larger) room on the 4th floor it was very nice and meet my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525907247-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525907247</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My husband had surgery at Cedar Sinai Hospital which was 4 miles away, this was the reason why we chose Hampton.  Good location.  Lots of stores all walking distance.  There is a bit of homeless in this area, but it didn't affect us.  The hotel was nice and very clean, staff was very helpful.  Enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525580668-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525580668</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Great value near many attractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel, friendly staff, clean rooms. Had a lot of extra comforts in the room and around the hotel. Lots of late night food options near the hotel. Valet parking was a bit pricey, but nice to have the car in a secure location that no one but the valet attendant could entee. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525250590-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525250590</t>
+  </si>
+  <si>
+    <t>09/17/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>Recently stayed here for 6 nights while visiting family. This is a new hotel so I found everything to be clean, bright and comfortable. The front desk staff were all friendly and helpful. The hotel has valet parking only and all attendants were very friendly and efficient. The housekeeping staff was efficient and also friendly. I encountered problems with the complimentary wifi not working properly with my droid phone. The front desk person I spoke to in the evening didn't know why I was having problems. In the morning I asked again and was told there was an issue with some droids. My Apple iPad had no problems connecting.  The complimentary breakfast was the usual waffles, eggs of some type with various sides, changed daily, oatmeal, cold cereal and yogurt although it was not available every day. Los Angeles has lots of great restaurants but hardly any in this area. I will be staying here again on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed here for 6 nights while visiting family. This is a new hotel so I found everything to be clean, bright and comfortable. The front desk staff were all friendly and helpful. The hotel has valet parking only and all attendants were very friendly and efficient. The housekeeping staff was efficient and also friendly. I encountered problems with the complimentary wifi not working properly with my droid phone. The front desk person I spoke to in the evening didn't know why I was having problems. In the morning I asked again and was told there was an issue with some droids. My Apple iPad had no problems connecting.  The complimentary breakfast was the usual waffles, eggs of some type with various sides, changed daily, oatmeal, cold cereal and yogurt although it was not available every day. Los Angeles has lots of great restaurants but hardly any in this area. I will be staying here again on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525225369-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525225369</t>
+  </si>
+  <si>
+    <t>Great access to Hollywood!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location clean comfortable and roomy! Easy access to public transportation and walking distance to Dolby Theater and it's surroundings! Very much worth it. I would stay there again. It was Clean the staff were very accommodating! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525215907-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525215907</t>
+  </si>
+  <si>
+    <t>Every little help</t>
+  </si>
+  <si>
+    <t>This hotel Hampton Inn &amp; Suites Los Angeles/Hollywood....is amazing...Came there , got  a fantastic room, with a bed that was huge...slept like a baby...woke up before 6am, and went to the lobby for free coffee...still early morning, went outside the hotel....I was looking for a place to sit and have my coffee and a cigarette...two guys standing outside, taking care of the parking...they kindly offered their chair...and one placed it beside the smoking area....this is what i call " every little help"  it seems with Hilton Honors, you have this little helping hands..both inside and outside...the Hilton Hotels...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r523887390-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523887390</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay!</t>
+  </si>
+  <si>
+    <t>Great customer service, brand new hotel, very comfortable! Great location, walking distance to restaurants and bars. They only have valet parking for $30 but very well worth it. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r523935438-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>523935438</t>
+  </si>
+  <si>
+    <t>Outstanding Staff!!!</t>
+  </si>
+  <si>
+    <t>The hotel itself was very nice - accommodations were clean and comfortable.  What sets this hotel apart, though, is its staff.  Without exception, they were friendly, helpful, courteous, and professional.  Best experience in a long time at a hotel of any kind.  Well done!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r522523754-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>522523754</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Brand new hotel, fab service</t>
+  </si>
+  <si>
+    <t>Stayed here with my daughter, it's a brand new hotel, walking distance to Hollywood Blvd, great value. Staff at reception, vallet parking and breakfast were exceptional. Can highly recommend. Only downside is that no dinner options at the hotel.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1834,4688 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>105</v>
+      </c>
+      <c r="O16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>173</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" t="s">
+        <v>188</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>173</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>173</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>209</v>
+      </c>
+      <c r="X30" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>214</v>
+      </c>
+      <c r="K31" t="s">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s">
+        <v>216</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>125</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s">
+        <v>225</v>
+      </c>
+      <c r="L33" t="s">
+        <v>226</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>125</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>209</v>
+      </c>
+      <c r="X34" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s">
+        <v>237</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>217</v>
+      </c>
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>244</v>
+      </c>
+      <c r="J37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>217</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>209</v>
+      </c>
+      <c r="X37" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" t="s">
+        <v>251</v>
+      </c>
+      <c r="K38" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" t="s">
+        <v>253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>217</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>209</v>
+      </c>
+      <c r="X39" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" t="s">
+        <v>262</v>
+      </c>
+      <c r="K40" t="s">
+        <v>263</v>
+      </c>
+      <c r="L40" t="s">
+        <v>264</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>265</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" t="s">
+        <v>270</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>265</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>265</v>
+      </c>
+      <c r="O42" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" t="s">
+        <v>273</v>
+      </c>
+      <c r="K43" t="s">
+        <v>278</v>
+      </c>
+      <c r="L43" t="s">
+        <v>279</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>265</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>282</v>
+      </c>
+      <c r="J44" t="s">
+        <v>283</v>
+      </c>
+      <c r="K44" t="s">
+        <v>284</v>
+      </c>
+      <c r="L44" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>265</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>286</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>287</v>
+      </c>
+      <c r="J45" t="s">
+        <v>288</v>
+      </c>
+      <c r="K45" t="s">
+        <v>289</v>
+      </c>
+      <c r="L45" t="s">
+        <v>290</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>265</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>209</v>
+      </c>
+      <c r="X45" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>293</v>
+      </c>
+      <c r="J46" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L46" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>297</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>299</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>300</v>
+      </c>
+      <c r="J47" t="s">
+        <v>301</v>
+      </c>
+      <c r="K47" t="s">
+        <v>302</v>
+      </c>
+      <c r="L47" t="s">
+        <v>303</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>297</v>
+      </c>
+      <c r="O47" t="s">
+        <v>304</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" t="s">
+        <v>307</v>
+      </c>
+      <c r="K48" t="s">
+        <v>308</v>
+      </c>
+      <c r="L48" t="s">
+        <v>309</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>297</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>311</v>
+      </c>
+      <c r="J49" t="s">
+        <v>312</v>
+      </c>
+      <c r="K49" t="s">
+        <v>313</v>
+      </c>
+      <c r="L49" t="s">
+        <v>314</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>297</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>316</v>
+      </c>
+      <c r="J50" t="s">
+        <v>317</v>
+      </c>
+      <c r="K50" t="s">
+        <v>318</v>
+      </c>
+      <c r="L50" t="s">
+        <v>319</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>297</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>321</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s">
+        <v>324</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>297</v>
+      </c>
+      <c r="O51" t="s">
+        <v>304</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" t="s">
+        <v>327</v>
+      </c>
+      <c r="K52" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>328</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>329</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>331</v>
+      </c>
+      <c r="J53" t="s">
+        <v>332</v>
+      </c>
+      <c r="K53" t="s">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s">
+        <v>334</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>329</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>336</v>
+      </c>
+      <c r="J54" t="s">
+        <v>337</v>
+      </c>
+      <c r="K54" t="s">
+        <v>338</v>
+      </c>
+      <c r="L54" t="s">
+        <v>339</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>329</v>
+      </c>
+      <c r="O54" t="s">
+        <v>304</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+      <c r="J55" t="s">
+        <v>337</v>
+      </c>
+      <c r="K55" t="s">
+        <v>342</v>
+      </c>
+      <c r="L55" t="s">
+        <v>343</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>329</v>
+      </c>
+      <c r="O55" t="s">
+        <v>304</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>344</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>345</v>
+      </c>
+      <c r="J56" t="s">
+        <v>346</v>
+      </c>
+      <c r="K56" t="s">
+        <v>347</v>
+      </c>
+      <c r="L56" t="s">
+        <v>348</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>329</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>349</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>350</v>
+      </c>
+      <c r="J57" t="s">
+        <v>351</v>
+      </c>
+      <c r="K57" t="s">
+        <v>352</v>
+      </c>
+      <c r="L57" t="s">
+        <v>353</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>329</v>
+      </c>
+      <c r="O57" t="s">
+        <v>304</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>355</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" t="s">
+        <v>358</v>
+      </c>
+      <c r="L58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
+      </c>
+      <c r="K59" t="s">
+        <v>363</v>
+      </c>
+      <c r="L59" t="s">
+        <v>364</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>329</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>365</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>366</v>
+      </c>
+      <c r="J60" t="s">
+        <v>367</v>
+      </c>
+      <c r="K60" t="s">
+        <v>368</v>
+      </c>
+      <c r="L60" t="s">
+        <v>369</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>329</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>370</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>371</v>
+      </c>
+      <c r="J61" t="s">
+        <v>372</v>
+      </c>
+      <c r="K61" t="s">
+        <v>373</v>
+      </c>
+      <c r="L61" t="s">
+        <v>374</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>329</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>375</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>376</v>
+      </c>
+      <c r="J62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K62" t="s">
+        <v>378</v>
+      </c>
+      <c r="L62" t="s">
+        <v>379</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>160</v>
+      </c>
+      <c r="O62" t="s">
+        <v>304</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>380</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>381</v>
+      </c>
+      <c r="J63" t="s">
+        <v>382</v>
+      </c>
+      <c r="K63" t="s">
+        <v>383</v>
+      </c>
+      <c r="L63" t="s">
+        <v>384</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>160</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>386</v>
+      </c>
+      <c r="J64" t="s">
+        <v>387</v>
+      </c>
+      <c r="K64" t="s">
+        <v>388</v>
+      </c>
+      <c r="L64" t="s">
+        <v>389</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>390</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>391</v>
+      </c>
+      <c r="J65" t="s">
+        <v>392</v>
+      </c>
+      <c r="K65" t="s">
+        <v>393</v>
+      </c>
+      <c r="L65" t="s">
+        <v>394</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>160</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>397</v>
+      </c>
+      <c r="J66" t="s">
+        <v>398</v>
+      </c>
+      <c r="K66" t="s">
+        <v>399</v>
+      </c>
+      <c r="L66" t="s">
+        <v>400</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>160</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>401</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>402</v>
+      </c>
+      <c r="J67" t="s">
+        <v>403</v>
+      </c>
+      <c r="K67" t="s">
+        <v>404</v>
+      </c>
+      <c r="L67" t="s">
+        <v>405</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>160</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>407</v>
+      </c>
+      <c r="J68" t="s">
+        <v>408</v>
+      </c>
+      <c r="K68" t="s">
+        <v>409</v>
+      </c>
+      <c r="L68" t="s">
+        <v>410</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>160</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>412</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>413</v>
+      </c>
+      <c r="J69" t="s">
+        <v>408</v>
+      </c>
+      <c r="K69" t="s">
+        <v>414</v>
+      </c>
+      <c r="L69" t="s">
+        <v>415</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>160</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>416</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>417</v>
+      </c>
+      <c r="J70" t="s">
+        <v>408</v>
+      </c>
+      <c r="K70" t="s">
+        <v>418</v>
+      </c>
+      <c r="L70" t="s">
+        <v>419</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>160</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" t="s">
+        <v>422</v>
+      </c>
+      <c r="K71" t="s">
+        <v>423</v>
+      </c>
+      <c r="L71" t="s">
+        <v>424</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>160</v>
+      </c>
+      <c r="O71" t="s">
+        <v>304</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>425</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>426</v>
+      </c>
+      <c r="J72" t="s">
+        <v>422</v>
+      </c>
+      <c r="K72" t="s">
+        <v>427</v>
+      </c>
+      <c r="L72" t="s">
+        <v>428</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>160</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64600</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>430</v>
+      </c>
+      <c r="J73" t="s">
+        <v>431</v>
+      </c>
+      <c r="K73" t="s">
+        <v>432</v>
+      </c>
+      <c r="L73" t="s">
+        <v>433</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>160</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_310.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>puddyfoote</t>
+  </si>
+  <si>
     <t>07/02/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I rarely, if ever, give a five star review of a hotel but I was absolutely pleased with the Hampton Hilton, Los Angeles.  Rooms are modern, ours was very clean, comfortable, and quiet.  Neutrogena products, nice linens, beds were firm but not hard.  Great blackout shade.  Very little outside noise, a little from upstairs room. It is close to Hollywood and Vine, the tourist area but I would advise against walking.  There are a lot of transients in the area camping, but the property is safe and clean.  Parking at the Kodak Theatre and Hollywood and  Highland Shopping Center is vast, go around to the side for the entrance.  Plenty of shopping, restaurants and accessibility to the Hollywood stars and eccentric night life.  Hotel is valet parking only at $30 a night which is irksome but the standard for this area, they do have covered parking.More</t>
   </si>
   <si>
+    <t>Kajoli T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r591779436-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bindi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r591778943-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>Stayed at hotel with family of 4 had adjoining roomsRoom size good with free basic breakfast in morningHotel and amenties good with a guest laundry costing $2 a loadPool is ok size and cleanSmall convenience shop in lobby but close walking distance to local convenience storeFood truck to the right of the hotel entrance at the local filling station selling authentic and delicious food The area around hotel has several homeless people living in streets but they dont bother anyoneEasy walking distance to strip and hollywood walk fame</t>
   </si>
   <si>
+    <t>Jonathan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r589471254-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>June 13, 2018 - I stayed at the Hampton Inn on Vine Street in the Hollywood area for one night for business.  The check-in process was a breeze and the front desk attendant recommended an excellent, reasonably-priced Mexican/Salvadoran restaurant within walking distance.  Clean room and bathroom, and plentiful breakfast buffet.More</t>
   </si>
   <si>
+    <t>douglasclark2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r588917333-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>It's a modern hotel which practically looks new.  Maybe it is, or maybe it is just still very up to date or recently renovated.  It doesn't matter to me.  The rooms were large and clean.  The lobby is modern.  Nice to have the free breakfast.  The only thing I didn't like is the cost of parking ($30 per night if I recall correctly).  I'm not going to let that spoil the experience.  This hotel isn't necessarily right next to anything of great interest, yet it is not that far to drive (or get a ride) to Hollywood Blvd or to a lot of restaurants on Santa Monica Blvd.</t>
   </si>
   <si>
+    <t>Shannon R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r588165277-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>I recently stayed here for two nights on a trip with my 3 kids.  The room was clean and well maintained.   Easily accessible to Walk of Fame and staff helpful and friendly.  Lots of traffic though, be prepared!</t>
   </si>
   <si>
+    <t>beachandsurfing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587757977-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>I recommend paying a little more to stay here. I really had no I complaints.  Some reviewers complained that they didn’t know about the $30/day parking/valet fee until arrival.  Reviewers of other hotels complained about no parking at night due to location near bars. It was worth not having the aggravation. We walked to Hollywood Blvd and back to eat dinner. It was quite a ways but it was a nice night and we never felt unsafe. We would walk it again. We would stay here again to be near the activities we wanted to do:  Paramount Studio tour, Starlight Tour of the Stars Homes, Hollywood Walk of Fame etc.More</t>
   </si>
   <si>
+    <t>PlanYourJourney</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587068556-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>We are loyal Hampton Inn and Homewood Suites guests everywhere we go because we are familiar with the quality of service and accommodations we will get with them but this branch of Hampton Inn broke our hearts and ruined our 4 day vacation.  The first room the front desk gave us has a stranger's hair in my son's pillow and someone else's trash in the restroom. In other words, they gave us an dirty room. After asking and insisting to be transferred to a clean one, we had to face the struggle of having a family member hold the shower handle for us to achieve the right temperature because the shower handle slips. It is either we have very cold or very hot water. We told the front desk but the same reply of no room is available is what we get. We were at room 517. Please have someone fix the shower handle for other families so they won't have to suffer the same demise. It is so hard to coordinate schedules, save and plan for a vacation just to be ruined by a hotel stay.More</t>
   </si>
   <si>
+    <t>Bajdek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r587052366-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t xml:space="preserve">I travel to LA several times a year to visit friends. Although the politics, attitude and general atmosphere of LA is abismal, my trip is always made better when I stay here. From the valets to the front desk to the pleasant staff who take care of the rooms, it’s always professional and top notch. If LA traffic was not a total cluster bomb, Idconsoder moving there and setting up residence in this hotel.  5 stars. </t>
   </si>
   <si>
+    <t>kathrynm119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r583758041-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -336,6 +366,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>kkhallky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r583494156-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -351,6 +384,9 @@
     <t>A wonderful property and staff..we thoroughly enjoyed our stay!  The location was outstanding...walking distance to downtown Hollywood and all its venues.  We would not hesitate to stay here anytime we travel to Los Angeles!!</t>
   </si>
   <si>
+    <t>mopargozzi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r582541009-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -366,6 +402,9 @@
     <t>The hotel was very nice but there were homeless everywhere around the hotel. I walked to lunch but would never do that again. I had to Uber to dinner as I just didn't feel safe walking with all the strange people milling around.</t>
   </si>
   <si>
+    <t>scotte401</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581854202-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t>To much road noise, homeless people fighting in the middle of the night cars drag racing, complimentary breakfast tasted like left overs from the day before. There was no milk. So my final impressions would be if there is nothing else.</t>
   </si>
   <si>
+    <t>Leo D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581719036-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -397,6 +439,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Shaun_Of_Oz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r581424804-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
@@ -433,6 +478,9 @@
 2) Parking -...This one is not good!   The good - it looks like it's brand new so the rooms are nice and modern and clean. The bad:1) LIke other people have commented here, there is no hot water!  My showers were luke warm at best.  There's no excuse for that and that's my main reason for giving a 1 star.   It shouldn't be accepted by the hotel and they should have fixed it.2) Paper thin walls - i checked in reasonably late and wanted to go to bed.  Two girls checked in to the room next door. There was an adjoining door (locked of course).  i could hear absolutely everything they were saying and doing.  I heard them blow their noses!  i heard the toilet flush!  and everything they said.  So i complained and i got moved to a corner room.  The new room was on Vine St so there was traffic noise, but that doesn't bother me.  I was grateful to be away from being able to hear strangers use the toilet!3) Slow elevators - unacceptable slow!  There are only 5 levels and i had to wait so long every time.Tips:1) The area - people have commented on the area.  But i knew the area so it was no surprised.  it is NOT unsafe.  There is a bit of a homeless problem in the area, but it s perfectly safe and always busy.2) Parking - if you are staying here on a weekend, don't pay for the valet at the hotel.  Parks on the street are easy to find and it's free from 7pm to 8am.More</t>
   </si>
   <si>
+    <t>snapdragonrose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r579102341-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -451,6 +499,9 @@
     <t>Received a text asking for my ETA and if there was anything they could do for me prior to arrival which was nice. Check in was easy and the front desk kindly answered my questions about suggestions for getting around the area. It's not in an area you'd feel safe walking around in at night but it's in a great position to access many local attractions. Hotel was clean, room was great (they upgraded me upon arrival). At night there is a little street noise from the club next door if you're on that side of the hotel. The cost for parking each night is enough to make me consider looking for somewhere else next time I need to be in the area. If the cost for parking was half what it was, I'd have no hesitation booking at this hotel again in the future. Anything over $30 is a little extreme.More</t>
   </si>
   <si>
+    <t>gkmont</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r577926403-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -469,6 +520,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Brian S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r577526980-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -484,6 +538,9 @@
     <t>The Hampton Inn is located in the perfect place for tourists visiting Hollywood. The hotel was relatively new and was very clean. Staff was friendly and was prepared to meet the needs of all guests. I wouldn’t hesitate to make my next stay when I’m out of town at the Hampton Inn.</t>
   </si>
   <si>
+    <t>Morrell T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r576132567-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -499,6 +556,9 @@
     <t>I was a guess at this facility because my son was a patient of Cedars Sinai medical Center. The hotel was in a 4 mile radius of the hospital which was very convenient. I did not us valet parking due to the cost but chose to us the parking structure of Cedars which gave me a discount. I was transported to and from by uber.</t>
   </si>
   <si>
+    <t>Tracey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r575804217-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -520,6 +580,9 @@
     <t>I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if...I checked in at the Hampton Inn &amp; Suites on 28th September 2017 and checked out on 2nd October 2017. On the morning of 29th September 2017, I hired a white Kia sedan from Sixt Rent a Car in Hollywood and drove from Sixt Rent a Car, Hollywood CA to Santa Ynez, CA for a day trip and returned to the Hampton Inn &amp; Suites at 11.30pm on 29th September 2017. I checked my car in with the Valet Parking Attendant and returned to my room. Early on the morning of 30th September 2017, at approximately 7.00am I checked the white Kia sedan out of the valet parking and drove it back to Sixt Rent a Car, Hollywood to compete my 24 hour car rental. I have been charged Valet Parking for three (3) nights. I should only have been charged for 29th September 2017 and should not have been charged on 30th September 2017 and 1st October 2017 @ $30 USD per night, a total overcharge of $60.00 USD. Upon checking out early on the morning of 2nd October 2017, I was signing my account and realised the overcharge. The Receptionist on duty could not authorise the refund at that time and I had a airport shuttle waiting for me so I had to leave. The Receptionist scribbled an e-mail address in hampton.hollywood.fd at gmail dot com and told me to contact the hotel at a later date if I had any problems. I kept checking my Debit Visa regularly and no refund appeared. I e-mailed the Hampton Inn &amp; Suites on 8th December 2017 and again on the 23rd December 2017 and received no reply. Upon putting the transaction in dispute, the reply Citibank received from the merchant was that it was a ‘valid transaction’ and would not reimburse the monies collected for the nights no valet parking services were rendered. Citibank have come to the party and reimbursed me the USD $60.00 overcharge (3 cheers to them!) In light of this I invite hotel management to come forward with their argument that they were within their right to charge, CCTV and the Valet Parking log books will show I only utilised the valet parking service for one night and not three nights. Very poor customer service from a Hampton Inn, check your accounts carefully people!!More</t>
   </si>
   <si>
+    <t>JMinNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r575288239-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -538,6 +601,9 @@
     <t>The hotel was clean, relatively quiet for being in a city, and comfortable, though nothing out of the ordinary for a nice Hampton Inn. The reason for an "average" rather than "very good" rating is that the surrounding area is a bit sketchy:  perhaps not unsafe, but lots of homeless people on the sidewalks, smell of urine near the hotel on the streets and sidewalks, and boarded up shops within a few blocks away. The area to the north of the hotel (towards Hollywood Blvd) is a bit nicer, though still not great. If, however, you want to be near most of the Hollywood attractions, this hotel is certainly a reasonable choice and likely as good or better than many in the area.More</t>
   </si>
   <si>
+    <t>Rene20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r571248564-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -556,6 +622,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>K6108LAlisac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r570053358-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -571,6 +640,9 @@
     <t>We enjoyed our stay at this hotel and would definitely stay again. Staff was courteous and friendly. The hotel was centrally located for all the places we planned to visit...Universal Studios, Madam Tussauds, etc.</t>
   </si>
   <si>
+    <t>jtravels1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569588411-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -586,6 +658,9 @@
     <t xml:space="preserve">Clean room and good breakfast. The safe wasn’t working so we moved to another room and still the safe wasn’t working. We found another alternative. The valet parking is great but there is a parking fee each night. The front desk is helpful and nice. It was a good stay for one night. Near everything. </t>
   </si>
   <si>
+    <t>Jennifer A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569184492-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -601,6 +676,9 @@
     <t xml:space="preserve">My overall stay at the Hampton Inn was excellent. The staff was great, the breakfast yummy and in a good location for my trip. My two complaints were the sound between floors; I had an extremely loud customer above me that kept me up or woke me up each night. Also, I wish there were drawers in the room closer to the closet or underneath the bed stand. </t>
   </si>
   <si>
+    <t>Carla G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r569177535-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -616,6 +694,9 @@
     <t>This hotel was comfortable and a couple of miles from Universal Studios.  Apparently there is a way to take public transportation if you are willing to walk a few blocks, but we ended up driving to the park.  We did not experience breakfast.  My qualm is with the mandatory valet parking for $30 a night.  I tried to park myself in their garage, which was almost completely empty, and they literally chased me down there to tell me they had to park it.  So that plus the tip each time you want your car add on significantly to the cost of the hotel, which is already not cheap (versus a flat parking fee where I can come and go).  The area is just okay- we walked at night to a nearby restaurant and there are homeless people sleeping along the street (typical in much of California now).  But there are quite a few restaurants within walking distance.  Based on the extra I had to pay due to the parking situation, I would not stay here again.  Otherwise the hotel is comfortable and clean and the service was good.More</t>
   </si>
   <si>
+    <t>ECSumi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r568339451-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -631,6 +712,9 @@
     <t>Finally, a decent Hilton a family hotel in that area. Company business is right off Vine and it’s convenient. Recommended the hotel to other business colleagues who usually stay at other hotels because of location. But they value and quality of Hampton Inn is significantly better</t>
   </si>
   <si>
+    <t>VTTracy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r566351179-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -646,6 +730,9 @@
     <t xml:space="preserve">This hotel is located a few blocks from Hollywood Blvd. - about a 20 minute walk to the heart of all of the attractions.  There is valet parking for $30/night in a parking garage.  There really isn’t any street parking in the area (that isn’t sketchy).  The hotel appears to be either new or recently remodeled.  No complaints compared to other Hampton Inns that I’ve stayed at. </t>
   </si>
   <si>
+    <t>opieks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r562174666-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -670,6 +757,9 @@
     <t>We had a great experience from the minute we walked in the door until we checked out.  The hotel is fairly new and very clean.  Our room was large, the bathroom more than adequate in size and the bed comfortable.  TV offerings were great and the free internet speed good.  The breakfast food offerings were simple but good and they kept all of them well stocked.  There is an area to purchase snacks, soft drinks and various other items in the hotel.  We were out and about for most of our stay so we weren't able to check out the pool and other amenities or the surrounding area.  The staff was VERY friendly and helpful. We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>stouffvilletravellor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r561321754-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -688,6 +778,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>F5960PCannas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558913766-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -703,6 +796,9 @@
     <t>Everything about our stay was amazing. Modern, beautifully updated, excellent service, great breakfast, clean, comfy, overall superb. Just wish the price was a bit more affordable, but given the location, maybe that's unavoidable.</t>
   </si>
   <si>
+    <t>Marla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558884347-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -715,6 +811,9 @@
     <t>Well appointed rooms, efficiently designed. Everything is new and the decor is very modern design. Terrific location, in the middle of Hollywood. Easy in-and-out valet parking, much less expensive than most Hollywood and other area hotels. Loved having the mini-fridge and microwave in the room. We will definitely be back</t>
   </si>
   <si>
+    <t>Sheilagh W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r558167324-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -733,6 +832,9 @@
     <t>Escaped our AirBandB at 6am after one night and this lovely and friendly hotel took us immediately. Everyone seems happy to work there. Room was comfy and clean, quiet and a nice view of HOLLYWOOD sign. Standard American breakfast items each morning. Coffee and tea 24/7.  We loved our stay. More</t>
   </si>
   <si>
+    <t>MKA7488</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r555948643-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -748,6 +850,9 @@
     <t>Wonderful hotel and location. Traveled to Los Angeles and wanted to look for a hotel central to Hollywood, The Getty, and other attractions we wanted to check out as well as close proximity to family and friends and this location was a winner. Minutes from the airport, and all the major attractions and right down the road from Hollywood, and around the corner from everything. Rooms were very nice, and newly updated, breakfast was very good as well. Staff was very friendly from the front desk, to the valet. Also right behind the hotel is Wild Card Boxing gym, was a pleasant surprise. Would definitely stay here again!</t>
   </si>
   <si>
+    <t>JohnfromJersey2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r555264922-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -763,6 +868,9 @@
     <t>This is a nice property which seems new and is located near a busy intersection with some good food/gas/bar options. The big issue was someone kept calling my room posing as the front desk and trying to get me to give them my billing (credit card) info. When I told them I knew they were scammers they threatened me with physical harm and said they were coming to my room. Kind of freaky. The front desk didn't warn me about these people calling, another guest did when I was checking in. The front desk had a memo about it, but they never told me verbally. Kinda crappy.</t>
   </si>
   <si>
+    <t>staceyl715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r554453586-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -781,6 +889,9 @@
     <t>The bed was a squeaky which is odd for a hotel bed and the water in the shower never got hot. Just warm. But otherwise everything was great. Very helpful staff and comfortable atmosphere. We would stay here again. If we stay longer than the three nights we did this time we would have asked for a bed that didn’t squeak. More</t>
   </si>
   <si>
+    <t>Retiredtraveler240</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r553371042-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -796,6 +907,9 @@
     <t xml:space="preserve">Very nice, new hotel close to Universal Studios and LA shopping. Great selection for the hot breakfast, something to please everybody. We chose the park and stay option because the rate was better than paying for the room AND parking. </t>
   </si>
   <si>
+    <t>C3908WJjamesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r553014021-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -814,6 +928,9 @@
     <t>I thourghly enjoyed my experience at the Hampton Inn and Suties LA/Hollywood.  It was very clean and well managed especially from my experience in the Hollywood area hotels...this hotel is economical, well managed, clean, and the service was friendly and competent ...I would definitely stay here againMore</t>
   </si>
   <si>
+    <t>JJTourist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r550753510-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -832,6 +949,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>M E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r548920268-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -847,6 +967,9 @@
     <t xml:space="preserve">Brand new hotel, just 3 mos old, I was told.  Room &amp; public areas are well appointed without being over the top. Our room had microwave &amp; fridge. Stayed here overnight to see a Cirque du Soleil show.  Minus 1 star for  the price of valet parking($30) &amp; the neighborhood </t>
   </si>
   <si>
+    <t>Ezmail</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r547714981-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -862,6 +985,9 @@
     <t xml:space="preserve">If you check in online.  You will also need to stop at the front desk to do the same exact check in.   Apparently online check in at this property means nothing.   Otherwise rooms were clean.  Breakfast is served daily </t>
   </si>
   <si>
+    <t>rmurray740</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r547782866-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -877,6 +1003,9 @@
     <t>Digital Key did not work at check in.  When I addressed with the front desk I was told that it must be something with my phone. As I stay at Hilton properties that almost always have this feature I was offended that the blame was placed on me.  I am confident on how the key less entry works. As I was not identified as a Diamond member I realize that it is possible at this newer hotel that training on this service has not reached a high level of competence.    The valet was a hidden charge which I did not appreciate.   The bathroom had hair and the underneath of the toilet seat was was not clean.   The most troublesome part of trying to sleep on a Saturday night was the loud bass music that kept blasting.More</t>
   </si>
   <si>
+    <t>464carls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545888675-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -892,6 +1021,9 @@
     <t>Very comfortable and well designed hotel.  Close to everything we wanted to do.  The breakfast had good hot items that changed every day as well as a make your own waffle that my husband loved.  There is a pool but it is not heated.</t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545685716-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -910,6 +1042,9 @@
     <t>This Hampton Inn is new, well designed, clean and in a great location. The staff are especially courteous. (You do have to pay for parking but considering the location that is reasonable. Valet was always very prompt and friendly.)More</t>
   </si>
   <si>
+    <t>D D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r545376249-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -931,6 +1066,9 @@
     <t>This is a welcome addition to the hotel choices in the Hollywood and Vine area.  Much better pricing than the nearby Roosevelt or W, yet still an easy walk or cheap Uber ride.  The newly remodeled hotel is really well designed.  All the USB ports and electrical plugs in the right places and the bathroom has plenty of counter space and other storage options.  As one other person indicated the immediate neighborhood is a little sketchy, but it was safe enough to walk to the Kodak theater while it was still daylight.  (We did Uber home.)  The front desk staff and valet staff were also very helpful.  I'll definitely stay here again if we attend an event at the Pantages or Kodak Theater.More</t>
   </si>
   <si>
+    <t>KerryVara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r543277472-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -949,6 +1087,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>569patriciaad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r542361477-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -964,6 +1105,9 @@
     <t>The neighborhood, like many in the Hollywood area, has positives and negatives.  We walked at night, but we were not comfortable.  The valet parking was excellent, so we just used the car when we went out and it was very convenient.  However, the newness and the safety of the hotel -- and the excellent breakfast was well worth the slight inconvenience of the neighborhood.</t>
   </si>
   <si>
+    <t>DayTripper084</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r542361233-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -979,6 +1123,9 @@
     <t>Hampton Inn and Suites is conveniently located on Vine, close to Santa Monica Blvd.  The hotel seemed relatively new. and it was nice and clean.  The complimentary breakfast was very good.  My only issue was that I requested a quiet room and my room faced Vine-not exactly what I would call quiet.</t>
   </si>
   <si>
+    <t>marcohernandezcr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r541249002-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -994,6 +1141,9 @@
     <t xml:space="preserve">The hotel is brand new and everyone is highly trained in customer service, they are very nice and accommodating. I highly recommended this hotel to anyone staying in the Hollywood area. Hollywood Blvd is a short walk slightly uphill but not bad at all. </t>
   </si>
   <si>
+    <t>cgasway1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r540839268-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1009,6 +1159,9 @@
     <t>The hotel is new which is a plus.  The walls are so thin that you can hear the actual conversation of anyone staying next to you.  If you want to sleep, this may not be your best choice of hotels. The room itself was very nice, lots of plugs, and the lighting was good (but the noise makes it average in my opinion) We felt safe in the area and liked its location close to the Pantages Theater. Literature said it was at Hollywood Blvd. and Vine which isn't true.</t>
   </si>
   <si>
+    <t>01649409</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r539497308-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1024,6 +1177,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>mommyrants</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r536322999-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1039,6 +1195,9 @@
     <t>Staff seemed to not care that a stranger was issued a key to my room at 11 PM. They called to see if the room was occupied instead of verifying the ID of the person  to whom they gave my key ruining my sleep.   Then my keys were deactivated.    They then offered me Honors points, but those are yet to arrive.</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r535800539-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1054,6 +1213,9 @@
     <t>I was very impressed with this hotel. I’ve stayed at Hampton Inns in the past, and I would say this one was was really nice and did not disappoint. The location was very close to a lot of sites (we had a rental car) but I would not walk around in the area at night. I would stay here again but next time I will request a room not facing Vine St as it was a little noisy late into the night.</t>
   </si>
   <si>
+    <t>Rob F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r535763036-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1066,6 +1228,9 @@
     <t>I’m a Hilton Honors member and have always struggled in this area because of the fewer options in order to stay loyal to the brand. Was very pleased to see that this hotel opened and added to the options. Super clean!  Great staff helped us in every way possible (and I’m pretty picky sometimes)!  Super convenient area!  I will definitely return to this property on my next visit to LA.</t>
   </si>
   <si>
+    <t>michaelnJ2475LF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r533411144-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1081,6 +1246,9 @@
     <t>My stay at the Hampton Inn was convenient, secure and efficient. The property is located in declining portion of Hollywood and it stands out accordingly. The property will help the area gentrify because of it's aesthetics and the property is well run</t>
   </si>
   <si>
+    <t>greenlimo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r532959491-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1099,6 +1267,9 @@
     <t>I needed a hotel for one night in the Hollywood area close to the Hollywood Bowl. My mother in her 70s was going to be with me so I had to rule out boutique hotels without legit parking, too much noise from Hollywood Blvd (seriously one hotel said they provided complimentary ear plugs) and ones without elevators. So, I came across the Hampton as it had really good reviews and everything hit the elderly mother checklist. But then the day before we were to arrive, my mother couldn't travel with me so a friend went with me instead. I thought, well shoot, now I wished I booked something more unique than a chain hotel. But you know what, this place was awesome! It was brand new, loved the decor, the staff was friendly and helpful, the parking (valet $30 overnight) super easy and the free breakfast was just what we needed after a night at the Hollywood Bowl. Even though it was a bit further from the Bowl, I appreciated that it was calmer and more relaxed than right off the main drag. More</t>
   </si>
   <si>
+    <t>frankwM3052WC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r532771712-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1114,6 +1285,9 @@
     <t>Hotel was in an extremely loud location.  Walls were paper thin.  Pool is small.  Complimentary breakfast was good and unexpected in downtown LA.  Valet service was extremely friendly.  However, I would not recommend this hotel.</t>
   </si>
   <si>
+    <t>Marcene v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r531818408-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1129,6 +1303,9 @@
     <t xml:space="preserve">I travel with a service animal and had a booking with full disclosure at a Hilton property. Upon showing up they decided it wasn’t pet friendly (even though they confirmed on the phone it was). They were able to get me a booking at Hampton, which was WAY better. Excellent customer Service and new property, so super clean!  Melissa is amazing!  </t>
   </si>
   <si>
+    <t>alanhX6429TA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r531266987-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1144,6 +1321,9 @@
     <t>A colleague and I had to make a last minute trip to Hollywood for a weekend expo.  The Hampton Inn was in the most central location, easy access to public transport, and affordable even when booked 24 hours early.  The staff was uniformly cheerful, professional and helpful.  The room was compact but neat and comfortable -- the microwave very handy for late night dinner!  Quite spacious bathroom and shower.  The free breakfast was plentiful and hearty.  Our time at the expo was a success and our stay at the Hampton even more so -- a very happy weekend in Hollywood!  I would book there again in a second.</t>
   </si>
   <si>
+    <t>Steen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r530403769-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1159,6 +1339,9 @@
     <t>The hotel must be brand new; everything felt like it had never been touched before. The room was well appointed, particularly the bathroom was great. The fitness center was good too, so zero complaints there. The location was great too, just a few minutes walk to Sunset and the Hollywood walk of fame. All in all I was highly impressed.</t>
   </si>
   <si>
+    <t>Anne D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528633147-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1174,6 +1357,9 @@
     <t>This is a new hotel and very, very clean.  I don't always feel comfortable in the bathroom and shower, but this one was spotless.  The beds were comfortable and clean.  The very large TV was a pleasant surprise as were the clean carpets.  The area was close to many sights but it was a little seedy.</t>
   </si>
   <si>
+    <t>Dylan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528332573-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1189,6 +1375,9 @@
     <t>This Hampton is brand new and is off to a stellar start! Everything is immaculate. Incredible pool. Amazing staff, super friendly. Rooms have a fun, Hollywood feel and boutique design. Very friendly general manager.  Stay here!!</t>
   </si>
   <si>
+    <t>ppwatson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r528103116-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1204,6 +1393,9 @@
     <t>I am a Hilton Rewards Member because I expect a certain standard, level of service and accommodation. Of course the Hampton met the standard. It is couched in an area that contains a number of restaurants, clubs and cinemas - what starts as a business trip can easily be converted to a fun getaway...</t>
   </si>
   <si>
+    <t>R B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r527733276-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1222,6 +1414,9 @@
     <t>If you are having a hard time deciding on a hotel room in Hollywood from the expensive large format hotel that you see during award shows have no fear and go several blocks south of Hollywood Blvd and stay at the Hampton Inn &amp; Suites.  It has the quality you would expect from the brand, it's not a 1000 room mega hotel but yet it is still in the heart of all the Hollywood action that you come to Hollywood to experience.  If you have stayed at a Hampton Inn before you know what to expect.  This hotel does not disappoint on that front.  It is your typical 5 story hotel with breakfast.  It only has valet parking so just pay the fee it is better than hunting for parking in Hollywood.  When I checked in I was offered an upgraded (larger) room on the 4th floor it was very nice and meet my needs.More</t>
   </si>
   <si>
+    <t>Wendy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525907247-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1237,6 +1432,9 @@
     <t>My husband had surgery at Cedar Sinai Hospital which was 4 miles away, this was the reason why we chose Hampton.  Good location.  Lots of stores all walking distance.  There is a bit of homeless in this area, but it didn't affect us.  The hotel was nice and very clean, staff was very helpful.  Enjoyed our stay.</t>
   </si>
   <si>
+    <t>BArietta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525580668-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1252,6 +1450,9 @@
     <t xml:space="preserve">Brand new hotel, friendly staff, clean rooms. Had a lot of extra comforts in the room and around the hotel. Lots of late night food options near the hotel. Valet parking was a bit pricey, but nice to have the car in a secure location that no one but the valet attendant could entee. </t>
   </si>
   <si>
+    <t>BronxWanderer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525250590-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1270,6 +1471,9 @@
     <t>Recently stayed here for 6 nights while visiting family. This is a new hotel so I found everything to be clean, bright and comfortable. The front desk staff were all friendly and helpful. The hotel has valet parking only and all attendants were very friendly and efficient. The housekeeping staff was efficient and also friendly. I encountered problems with the complimentary wifi not working properly with my droid phone. The front desk person I spoke to in the evening didn't know why I was having problems. In the morning I asked again and was told there was an issue with some droids. My Apple iPad had no problems connecting.  The complimentary breakfast was the usual waffles, eggs of some type with various sides, changed daily, oatmeal, cold cereal and yogurt although it was not available every day. Los Angeles has lots of great restaurants but hardly any in this area. I will be staying here again on my next visit.More</t>
   </si>
   <si>
+    <t>Justmecyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525225369-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1282,6 +1486,9 @@
     <t xml:space="preserve">Great location clean comfortable and roomy! Easy access to public transportation and walking distance to Dolby Theater and it's surroundings! Very much worth it. I would stay there again. It was Clean the staff were very accommodating! </t>
   </si>
   <si>
+    <t>majblomqvist385</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r525215907-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1294,6 +1501,9 @@
     <t>This hotel Hampton Inn &amp; Suites Los Angeles/Hollywood....is amazing...Came there , got  a fantastic room, with a bed that was huge...slept like a baby...woke up before 6am, and went to the lobby for free coffee...still early morning, went outside the hotel....I was looking for a place to sit and have my coffee and a cigarette...two guys standing outside, taking care of the parking...they kindly offered their chair...and one placed it beside the smoking area....this is what i call " every little help"  it seems with Hilton Honors, you have this little helping hands..both inside and outside...the Hilton Hotels...</t>
   </si>
   <si>
+    <t>Patty K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r523887390-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1309,6 +1519,9 @@
     <t>Great customer service, brand new hotel, very comfortable! Great location, walking distance to restaurants and bars. They only have valet parking for $30 but very well worth it. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>thomasjr407</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r523935438-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1319,6 +1532,9 @@
   </si>
   <si>
     <t>The hotel itself was very nice - accommodations were clean and comfortable.  What sets this hotel apart, though, is its staff.  Without exception, they were friendly, helpful, courteous, and professional.  Best experience in a long time at a hotel of any kind.  Well done!!</t>
+  </si>
+  <si>
+    <t>Janis B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d223044-r522523754-Hampton_Inn_Suites_Los_Angeles_Hollywood-Los_Angeles_California.html</t>
@@ -1838,43 +2054,47 @@
       <c r="A2" t="n">
         <v>64600</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>181961</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1898,50 +2118,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64600</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>181962</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1965,50 +2189,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64600</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>181963</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="J4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2022,50 +2250,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64600</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>4084</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2087,47 +2319,51 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64600</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>181964</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -2146,50 +2382,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64600</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>16962</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2213,50 +2453,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64600</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>181965</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2280,50 +2524,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64600</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>181966</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -2347,50 +2595,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64600</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>181967</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2414,50 +2666,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64600</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>181968</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2481,50 +2737,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64600</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>181969</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2548,50 +2808,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64600</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>181970</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>115</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>105</v>
-      </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2615,50 +2879,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64600</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>181971</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2682,50 +2950,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64600</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>115804</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -2743,50 +3015,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64600</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>181972</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2804,50 +3080,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64600</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>181973</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2871,50 +3151,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64600</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>181974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2938,50 +3222,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64600</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>831</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3005,50 +3293,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64600</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>181975</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -3072,50 +3364,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64600</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>13629</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3135,50 +3431,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64600</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>181976</v>
+      </c>
+      <c r="C22" t="s">
+        <v>182</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3196,50 +3496,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64600</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>181977</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3253,50 +3557,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64600</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>181978</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="J24" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="K24" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3320,50 +3628,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64600</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>181979</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="J25" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3377,50 +3689,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64600</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C26" t="s">
+        <v>208</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="L26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3444,50 +3760,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64600</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>28051</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3507,50 +3827,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64600</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>181980</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>195</v>
       </c>
-      <c r="J28" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" t="s">
-        <v>197</v>
-      </c>
-      <c r="L28" t="s">
-        <v>198</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>173</v>
-      </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3574,50 +3898,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64600</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>181981</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3631,50 +3959,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64600</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>181982</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="J30" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3688,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="X30" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="Y30" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64600</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>181983</v>
+      </c>
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3757,50 +4093,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64600</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>181984</v>
+      </c>
+      <c r="C32" t="s">
+        <v>248</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -3824,50 +4164,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64600</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>181985</v>
+      </c>
+      <c r="C33" t="s">
+        <v>254</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3891,50 +4235,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64600</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>181986</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3956,56 +4304,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="X34" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="Y34" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64600</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>181987</v>
+      </c>
+      <c r="C35" t="s">
+        <v>266</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="J35" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4029,50 +4381,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64600</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>181988</v>
+      </c>
+      <c r="C36" t="s">
+        <v>272</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="J36" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4096,50 +4452,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64600</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>181989</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="J37" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s">
+        <v>283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
         <v>247</v>
       </c>
-      <c r="M37" t="n">
-        <v>4</v>
-      </c>
-      <c r="N37" t="s">
-        <v>217</v>
-      </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4161,56 +4521,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="X37" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="Y37" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64600</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>181990</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4234,50 +4598,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64600</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>181991</v>
+      </c>
+      <c r="C39" t="s">
+        <v>291</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4299,56 +4667,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="X39" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="Y39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64600</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>181992</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="K40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4372,50 +4744,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64600</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>181993</v>
+      </c>
+      <c r="C41" t="s">
+        <v>305</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="J41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4439,50 +4815,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64600</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>181994</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="J42" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O42" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4496,50 +4876,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64600</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>181995</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="J43" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="K43" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4563,50 +4947,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64600</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>181996</v>
+      </c>
+      <c r="C44" t="s">
+        <v>323</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="J44" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="K44" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4630,50 +5018,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64600</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>507</v>
+      </c>
+      <c r="C45" t="s">
+        <v>329</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="J45" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="K45" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4695,56 +5087,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="X45" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="Y45" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64600</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>75068</v>
+      </c>
+      <c r="C46" t="s">
+        <v>336</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="K46" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4764,50 +5160,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64600</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>181997</v>
+      </c>
+      <c r="C47" t="s">
+        <v>344</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="J47" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="K47" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O47" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4831,50 +5231,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64600</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>181998</v>
+      </c>
+      <c r="C48" t="s">
+        <v>351</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="J48" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="K48" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="L48" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4898,50 +5302,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64600</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>181999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>357</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="J49" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O49" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4965,50 +5373,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64600</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>182000</v>
+      </c>
+      <c r="C50" t="s">
+        <v>363</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="J50" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="L50" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5032,50 +5444,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64600</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>182001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>369</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="J51" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="K51" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="O51" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -5099,50 +5515,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64600</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>182002</v>
+      </c>
+      <c r="C52" t="s">
+        <v>375</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="J52" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="K52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L52" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5156,50 +5576,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64600</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>182003</v>
+      </c>
+      <c r="C53" t="s">
+        <v>381</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="J53" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5223,50 +5647,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64600</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C54" t="s">
+        <v>387</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="J54" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O54" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5280,50 +5708,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64600</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>57694</v>
+      </c>
+      <c r="C55" t="s">
+        <v>393</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="K55" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O55" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5337,50 +5769,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64600</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>182004</v>
+      </c>
+      <c r="C56" t="s">
+        <v>398</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="J56" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
       <c r="L56" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5404,50 +5840,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64600</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>182005</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
+        <v>406</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s">
+        <v>409</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s">
         <v>350</v>
-      </c>
-      <c r="J57" t="s">
-        <v>351</v>
-      </c>
-      <c r="K57" t="s">
-        <v>352</v>
-      </c>
-      <c r="L57" t="s">
-        <v>353</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>329</v>
-      </c>
-      <c r="O57" t="s">
-        <v>304</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5461,50 +5901,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64600</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>182006</v>
+      </c>
+      <c r="C58" t="s">
+        <v>411</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
       <c r="J58" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="K58" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="L58" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5528,50 +5972,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64600</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>182007</v>
+      </c>
+      <c r="C59" t="s">
+        <v>417</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="J59" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="K59" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5595,50 +6043,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64600</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>182008</v>
+      </c>
+      <c r="C60" t="s">
+        <v>423</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="J60" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="K60" t="s">
-        <v>368</v>
+        <v>427</v>
       </c>
       <c r="L60" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5662,50 +6114,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64600</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>182009</v>
+      </c>
+      <c r="C61" t="s">
+        <v>429</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="J61" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
       <c r="K61" t="s">
-        <v>373</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5729,50 +6185,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64600</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>17375</v>
+      </c>
+      <c r="C62" t="s">
+        <v>435</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="J62" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="K62" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O62" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5796,50 +6256,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64600</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>64980</v>
+      </c>
+      <c r="C63" t="s">
+        <v>441</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>380</v>
+        <v>442</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>381</v>
+        <v>443</v>
       </c>
       <c r="J63" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="K63" t="s">
-        <v>383</v>
+        <v>445</v>
       </c>
       <c r="L63" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5853,50 +6317,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>384</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64600</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>182010</v>
+      </c>
+      <c r="C64" t="s">
+        <v>447</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="J64" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="K64" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="L64" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5920,50 +6388,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64600</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>7022</v>
+      </c>
+      <c r="C65" t="s">
+        <v>453</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>390</v>
+        <v>454</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>455</v>
       </c>
       <c r="J65" t="s">
-        <v>392</v>
+        <v>456</v>
       </c>
       <c r="K65" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="L65" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O65" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -5987,50 +6459,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64600</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>2471</v>
+      </c>
+      <c r="C66" t="s">
+        <v>460</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="J66" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="K66" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="L66" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6054,50 +6530,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64600</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>182011</v>
+      </c>
+      <c r="C67" t="s">
+        <v>466</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="J67" t="s">
-        <v>403</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6121,50 +6601,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>405</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64600</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>182012</v>
+      </c>
+      <c r="C68" t="s">
+        <v>472</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="J68" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K68" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6188,50 +6672,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64600</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>182013</v>
+      </c>
+      <c r="C69" t="s">
+        <v>479</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="J69" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K69" t="s">
-        <v>414</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6255,50 +6743,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>415</v>
+        <v>483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64600</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>182014</v>
+      </c>
+      <c r="C70" t="s">
+        <v>484</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="J70" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K70" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6312,50 +6804,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64600</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>73740</v>
+      </c>
+      <c r="C71" t="s">
+        <v>489</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>490</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="J71" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="K71" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="L71" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O71" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6379,50 +6875,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64600</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>182015</v>
+      </c>
+      <c r="C72" t="s">
+        <v>495</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="J72" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="K72" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="L72" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -6446,50 +6946,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64600</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>76600</v>
+      </c>
+      <c r="C73" t="s">
+        <v>500</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>430</v>
+        <v>502</v>
       </c>
       <c r="J73" t="s">
-        <v>431</v>
+        <v>503</v>
       </c>
       <c r="K73" t="s">
-        <v>432</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="O73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6513,7 +7017,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>433</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
